--- a/exe/Xml/StopPositionOffset.xlsx
+++ b/exe/Xml/StopPositionOffset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\【簡易版】TrainCrewMoniter - コピー\exe\Xml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\【簡易版】TrainCrewMoniter\exe\Xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B72CF2D-473B-4755-A044-D1ECF9644C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C3D726-9460-4D59-94FD-9CD89A39482D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="4575" windowWidth="24345" windowHeight="15000" xr2:uid="{B8A60E91-9F41-44A5-A33B-09C8F4153F57}"/>
+    <workbookView xWindow="7560" yWindow="4200" windowWidth="24345" windowHeight="15000" xr2:uid="{B8A60E91-9F41-44A5-A33B-09C8F4153F57}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
   <si>
     <t>Direction</t>
     <phoneticPr fontId="1"/>
@@ -134,6 +134,95 @@
   </si>
   <si>
     <t>新野崎引上線</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西赤山</t>
+    <rPh sb="0" eb="1">
+      <t>ニシ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>アカヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奥峯口</t>
+    <rPh sb="0" eb="1">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ミネグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日野森</t>
+    <rPh sb="0" eb="2">
+      <t>ヒノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高見沢</t>
+    <rPh sb="0" eb="3">
+      <t>タカミサワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水越</t>
+    <rPh sb="0" eb="2">
+      <t>ミズコシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤江</t>
+    <rPh sb="0" eb="2">
+      <t>フジエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤山町</t>
+    <rPh sb="0" eb="2">
+      <t>アカヤマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤江</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水越</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高見沢</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日野森</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奥峯口</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西赤山</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤山町</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -142,7 +231,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -190,7 +279,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -199,22 +288,22 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="179" formatCode="0.0"/>
+      <numFmt numFmtId="176" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="0.0"/>
+      <numFmt numFmtId="176" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="0.0"/>
+      <numFmt numFmtId="176" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="0.0"/>
+      <numFmt numFmtId="176" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="0.0"/>
+      <numFmt numFmtId="176" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="0.0"/>
+      <numFmt numFmtId="176" formatCode="0.0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -262,8 +351,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B349CBAD-8933-438E-95C9-C3B7172DC9EF}" name="テーブル1" displayName="テーブル1" ref="A1:H32" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:H32" xr:uid="{B349CBAD-8933-438E-95C9-C3B7172DC9EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B349CBAD-8933-438E-95C9-C3B7172DC9EF}" name="テーブル1" displayName="テーブル1" ref="A1:H46" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:H46" xr:uid="{B349CBAD-8933-438E-95C9-C3B7172DC9EF}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{30193CDC-EDB6-4331-8959-149FAC9A2943}" uniqueName="Direction" name="Direction">
       <xmlColumnPr mapId="1" xpath="/Xml/Value/Direction" xmlDataType="string"/>
@@ -591,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -634,23 +723,23 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
+      <c r="B2" t="s">
+        <v>32</v>
       </c>
       <c r="C2" s="2">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>61.5</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -660,8 +749,8 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
+      <c r="B3" t="s">
+        <v>26</v>
       </c>
       <c r="C3" s="2">
         <v>83</v>
@@ -686,8 +775,8 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
+      <c r="B4" t="s">
+        <v>27</v>
       </c>
       <c r="C4" s="2">
         <v>83</v>
@@ -696,13 +785,13 @@
         <v>83</v>
       </c>
       <c r="E4" s="2">
-        <v>41</v>
+        <v>61.5</v>
       </c>
       <c r="F4" s="2">
         <v>41</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -712,20 +801,20 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
+      <c r="B5" t="s">
+        <v>28</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -738,23 +827,23 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
+      <c r="B6" t="s">
+        <v>29</v>
       </c>
       <c r="C6" s="2">
-        <v>20.5</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2">
-        <v>20.5</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2">
-        <v>20.5</v>
+        <v>61.5</v>
       </c>
       <c r="F6" s="2">
-        <v>20.5</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -764,23 +853,23 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
+      <c r="B7" t="s">
+        <v>30</v>
       </c>
       <c r="C7" s="2">
-        <v>61.5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>61.5</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -790,8 +879,8 @@
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
+      <c r="B8" t="s">
+        <v>31</v>
       </c>
       <c r="C8" s="2">
         <v>83</v>
@@ -817,22 +906,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>61.5</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G9" s="2">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -843,7 +932,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2">
         <v>83</v>
@@ -869,19 +958,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D11" s="2">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F11" s="2">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -895,7 +984,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -921,7 +1010,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2">
         <v>20.5</v>
@@ -947,22 +1036,22 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2">
-        <v>0</v>
+        <v>61.5</v>
       </c>
       <c r="D14" s="2">
-        <v>0</v>
+        <v>61.5</v>
       </c>
       <c r="E14" s="2">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G14" s="2">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -973,22 +1062,22 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2">
-        <v>20.5</v>
+        <v>83</v>
       </c>
       <c r="D15" s="2">
-        <v>20.5</v>
+        <v>83</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <v>61.5</v>
       </c>
       <c r="F15" s="2">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -999,7 +1088,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -1022,10 +1111,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2">
         <v>83</v>
@@ -1048,22 +1137,22 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2">
-        <v>61.5</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2">
-        <v>61.5</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>61.5</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2">
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -1074,25 +1163,25 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>61.5</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -1100,7 +1189,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>21</v>
@@ -1126,25 +1215,25 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>61.5</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1152,25 +1241,25 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2">
-        <v>83</v>
+        <v>20.5</v>
       </c>
       <c r="D22" s="2">
-        <v>83</v>
+        <v>20.5</v>
       </c>
       <c r="E22" s="2">
-        <v>61.5</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G22" s="2">
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1178,10 +1267,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -1207,7 +1296,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C24" s="2">
         <v>83</v>
@@ -1233,19 +1322,19 @@
         <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2">
-        <v>0</v>
+        <v>61.5</v>
       </c>
       <c r="D25" s="2">
-        <v>0</v>
+        <v>61.5</v>
       </c>
       <c r="E25" s="2">
-        <v>0</v>
+        <v>61.5</v>
       </c>
       <c r="F25" s="2">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
@@ -1259,16 +1348,16 @@
         <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C26" s="2">
-        <v>61.5</v>
+        <v>83</v>
       </c>
       <c r="D26" s="2">
-        <v>61.5</v>
+        <v>83</v>
       </c>
       <c r="E26" s="2">
-        <v>41</v>
+        <v>61.5</v>
       </c>
       <c r="F26" s="2">
         <v>41</v>
@@ -1285,22 +1374,22 @@
         <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C27" s="2">
-        <v>83</v>
+        <v>20.5</v>
       </c>
       <c r="D27" s="2">
-        <v>83</v>
+        <v>20.5</v>
       </c>
       <c r="E27" s="2">
-        <v>61.5</v>
+        <v>20.5</v>
       </c>
       <c r="F27" s="2">
-        <v>41</v>
+        <v>20.5</v>
       </c>
       <c r="G27" s="2">
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -1311,22 +1400,22 @@
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C28" s="2">
-        <v>20.5</v>
+        <v>83</v>
       </c>
       <c r="D28" s="2">
-        <v>20.5</v>
+        <v>83</v>
       </c>
       <c r="E28" s="2">
-        <v>20.5</v>
+        <v>61.5</v>
       </c>
       <c r="F28" s="2">
-        <v>20.5</v>
+        <v>41</v>
       </c>
       <c r="G28" s="2">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -1337,22 +1426,22 @@
         <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C29" s="2">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D29" s="2">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E29" s="2">
-        <v>0</v>
+        <v>61.5</v>
       </c>
       <c r="F29" s="2">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G29" s="2">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -1363,19 +1452,19 @@
         <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C30" s="2">
-        <v>61.5</v>
+        <v>0</v>
       </c>
       <c r="D30" s="2">
-        <v>61.5</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2">
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="F30" s="2">
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="G30" s="2">
         <v>0</v>
@@ -1389,22 +1478,22 @@
         <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C31" s="2">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D31" s="2">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E31" s="2">
-        <v>0</v>
+        <v>61.5</v>
       </c>
       <c r="F31" s="2">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G31" s="2">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -1415,24 +1504,388 @@
         <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="2">
+        <v>61.5</v>
+      </c>
+      <c r="D33" s="2">
+        <v>61.5</v>
+      </c>
+      <c r="E33" s="2">
+        <v>41</v>
+      </c>
+      <c r="F33" s="2">
+        <v>41</v>
+      </c>
+      <c r="G33" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="2">
+        <v>83</v>
+      </c>
+      <c r="D34" s="2">
+        <v>83</v>
+      </c>
+      <c r="E34" s="2">
+        <v>61.5</v>
+      </c>
+      <c r="F34" s="2">
+        <v>41</v>
+      </c>
+      <c r="G34" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="D35" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="E35" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="F35" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2">
+        <v>61.5</v>
+      </c>
+      <c r="D37" s="2">
+        <v>61.5</v>
+      </c>
+      <c r="E37" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="F37" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="2">
-        <v>83</v>
-      </c>
-      <c r="D32" s="2">
-        <v>83</v>
-      </c>
-      <c r="E32" s="2">
-        <v>61.5</v>
-      </c>
-      <c r="F32" s="2">
-        <v>41</v>
-      </c>
-      <c r="G32" s="2">
-        <v>20.5</v>
-      </c>
-      <c r="H32" s="2">
+      <c r="C39" s="2">
+        <v>83</v>
+      </c>
+      <c r="D39" s="2">
+        <v>83</v>
+      </c>
+      <c r="E39" s="2">
+        <v>61.5</v>
+      </c>
+      <c r="F39" s="2">
+        <v>41</v>
+      </c>
+      <c r="G39" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="2">
+        <v>83</v>
+      </c>
+      <c r="D41" s="2">
+        <v>83</v>
+      </c>
+      <c r="E41" s="2">
+        <v>61.5</v>
+      </c>
+      <c r="F41" s="2">
+        <v>41</v>
+      </c>
+      <c r="G41" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="2">
+        <v>41</v>
+      </c>
+      <c r="D43" s="2">
+        <v>41</v>
+      </c>
+      <c r="E43" s="2">
+        <v>41</v>
+      </c>
+      <c r="F43" s="2">
+        <v>41</v>
+      </c>
+      <c r="G43" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="2">
+        <v>61.5</v>
+      </c>
+      <c r="D46" s="2">
+        <v>61.5</v>
+      </c>
+      <c r="E46" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="F46" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
         <v>0</v>
       </c>
     </row>
